--- a/ZIGZAGpuzzler/data_analysismode2.xlsx
+++ b/ZIGZAGpuzzler/data_analysismode2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhen Ao\Desktop\project-2020-s2-puzzle-constraints\ZIGZAGpuzzler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C12DE3-DA33-48E9-ADD0-5E4F2211F8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE01B1D-C964-41C6-AE1B-58E38024414E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="90" windowWidth="28380" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
   <si>
     <t>Choco</t>
   </si>
@@ -47,6 +47,42 @@
   </si>
   <si>
     <t>Yuck</t>
+  </si>
+  <si>
+    <t>PicatSAT</t>
+  </si>
+  <si>
+    <t>Ortool</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Solver name</t>
+  </si>
+  <si>
+    <t>Average excution time for solved cases</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Total cases</t>
+  </si>
+  <si>
+    <t>Solved cases</t>
   </si>
 </sst>
 </file>
@@ -82,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4978,6 +5015,4110 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solved cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$57:$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Choco</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Coinbc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Izplus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jacop</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yuck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$57:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E70-4903-B2EA-03C9992F1C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$57:$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Choco</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Coinbc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Izplus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jacop</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yuck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$57:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E70-4903-B2EA-03C9992F1C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="870974639"/>
+        <c:axId val="1145041343"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="870974639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145041343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1145041343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870974639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Choco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-401C-4624-BFA4-840B9ECBE843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-401C-4624-BFA4-840B9ECBE843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coinbc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-401C-4624-BFA4-840B9ECBE843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-401C-4624-BFA4-840B9ECBE843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Izplus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-401C-4624-BFA4-840B9ECBE843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jacop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-401C-4624-BFA4-840B9ECBE843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-401C-4624-BFA4-840B9ECBE843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-401C-4624-BFA4-840B9ECBE843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yuck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-401C-4624-BFA4-840B9ECBE843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="931240159"/>
+        <c:axId val="1145051743"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="931240159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145051743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1145051743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931240159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$85:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Choco</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Coinbc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Izplus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jacop</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yuck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$85:$C$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF91-4EE8-9937-119CDEF9941B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Junior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$85:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Choco</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Coinbc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Izplus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jacop</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yuck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF91-4EE8-9937-119CDEF9941B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$85:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Choco</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Coinbc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Izplus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jacop</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yuck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$85:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF91-4EE8-9937-119CDEF9941B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Master</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$85:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Choco</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Coinbc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Izplus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jacop</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yuck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$85:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EF91-4EE8-9937-119CDEF9941B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$85:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Choco</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Coinbc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Izplus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jacop</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yuck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$85:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EF91-4EE8-9937-119CDEF9941B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1143218575"/>
+        <c:axId val="1145027615"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1143218575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145027615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1145027615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143218575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Choco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$84:$P$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$85:$P$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C06C-45E3-BABF-3C696A7B8652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$84:$P$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$86:$P$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C06C-45E3-BABF-3C696A7B8652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coinbc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$84:$P$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$87:$P$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C06C-45E3-BABF-3C696A7B8652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$84:$P$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$88:$P$88</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C06C-45E3-BABF-3C696A7B8652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Izplus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$84:$P$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$89:$P$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C06C-45E3-BABF-3C696A7B8652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jacop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$84:$P$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$90:$P$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C06C-45E3-BABF-3C696A7B8652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$84:$P$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$91:$P$91</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C06C-45E3-BABF-3C696A7B8652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$84:$P$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$92:$P$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C06C-45E3-BABF-3C696A7B8652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yuck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$84:$P$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$93:$P$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C06C-45E3-BABF-3C696A7B8652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1140907823"/>
+        <c:axId val="1145073375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1140907823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145073375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1145073375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140907823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$114</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chuffed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$113:$G$113</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$114:$G$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4700000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C763-40A6-B04E-AEE935EFCFDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ortool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$113:$G$113</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$115:$G$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C763-40A6-B04E-AEE935EFCFDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PicatSAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$113:$G$113</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Expert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Master</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wizard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$116:$G$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C763-40A6-B04E-AEE935EFCFDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="586045007"/>
+        <c:axId val="448647711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="586045007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448647711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448647711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586045007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5058,6 +9199,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -6058,6 +10399,2494 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6131,6 +12960,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC53D4E2-84A3-4DEF-9E5D-A8D1E78333FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915CA00C-5699-4230-8105-FD8EACFEFE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF056356-29D4-4454-B55C-B9EBFF93036A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD52862-06CE-4116-991D-5A19D6E1A948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AA82AA-E41A-423B-8175-95A9D17B6304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6460,10 +13479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W42"/>
+  <dimension ref="A2:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:W42"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:Y136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8266,6 +15285,876 @@
         <v>22.16791462898254</v>
       </c>
     </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" t="s">
+        <v>18</v>
+      </c>
+      <c r="U56" t="s">
+        <v>16</v>
+      </c>
+      <c r="V56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="K57" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U57" t="s">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>115.14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="U58" t="s">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="U59" t="s">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>124.99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>34</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="K60" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="U60" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>148.78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="U61" t="s">
+        <v>4</v>
+      </c>
+      <c r="V61">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="K62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="U62" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62">
+        <v>100.03</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>40</v>
+      </c>
+      <c r="D63">
+        <v>40</v>
+      </c>
+      <c r="K63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="U63" t="s">
+        <v>10</v>
+      </c>
+      <c r="V63">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+      <c r="D64">
+        <v>40</v>
+      </c>
+      <c r="K64" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="U64" t="s">
+        <v>9</v>
+      </c>
+      <c r="V64">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>40</v>
+      </c>
+      <c r="K65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U65" t="s">
+        <v>8</v>
+      </c>
+      <c r="V65">
+        <v>264.87</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84" t="s">
+        <v>13</v>
+      </c>
+      <c r="O84" t="s">
+        <v>12</v>
+      </c>
+      <c r="P84" t="s">
+        <v>11</v>
+      </c>
+      <c r="T84" t="s">
+        <v>16</v>
+      </c>
+      <c r="U84" t="s">
+        <v>15</v>
+      </c>
+      <c r="V84" t="s">
+        <v>14</v>
+      </c>
+      <c r="W84" t="s">
+        <v>13</v>
+      </c>
+      <c r="X84" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="K85" t="s">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1">
+        <v>1</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="T85" t="s">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0.64</v>
+      </c>
+      <c r="V85">
+        <v>0.85</v>
+      </c>
+      <c r="W85">
+        <v>3.93</v>
+      </c>
+      <c r="X85">
+        <v>85.81</v>
+      </c>
+      <c r="Y85">
+        <v>706.04</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86">
+        <v>8</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>1</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+      <c r="P86" s="1">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>0.39</v>
+      </c>
+      <c r="V86">
+        <v>0.59</v>
+      </c>
+      <c r="W86">
+        <v>1.21</v>
+      </c>
+      <c r="X86">
+        <v>3.11</v>
+      </c>
+      <c r="Y86">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" t="s">
+        <v>2</v>
+      </c>
+      <c r="U87">
+        <v>18.53</v>
+      </c>
+      <c r="V87">
+        <v>274.02999999999997</v>
+      </c>
+      <c r="W87">
+        <v>1800</v>
+      </c>
+      <c r="X87">
+        <v>1800</v>
+      </c>
+      <c r="Y87">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="K88" t="s">
+        <v>3</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>1</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="T88" t="s">
+        <v>3</v>
+      </c>
+      <c r="U88">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V88">
+        <v>12.92</v>
+      </c>
+      <c r="W88">
+        <v>97.56</v>
+      </c>
+      <c r="X88">
+        <v>247.46</v>
+      </c>
+      <c r="Y88">
+        <v>808.77</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="K89" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1">
+        <v>1</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T89" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <v>1.66</v>
+      </c>
+      <c r="V89">
+        <v>3.51</v>
+      </c>
+      <c r="W89">
+        <v>24.88</v>
+      </c>
+      <c r="X89">
+        <v>141.06</v>
+      </c>
+      <c r="Y89">
+        <v>250.37</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>5</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="T90" t="s">
+        <v>5</v>
+      </c>
+      <c r="U90">
+        <v>0.46</v>
+      </c>
+      <c r="V90">
+        <v>0.76</v>
+      </c>
+      <c r="W90">
+        <v>6.13</v>
+      </c>
+      <c r="X90">
+        <v>220.92</v>
+      </c>
+      <c r="Y90">
+        <v>1595.86</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+      <c r="K91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1">
+        <v>1</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1</v>
+      </c>
+      <c r="O91" s="1">
+        <v>1</v>
+      </c>
+      <c r="P91" s="1">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s">
+        <v>10</v>
+      </c>
+      <c r="U91">
+        <v>0.47</v>
+      </c>
+      <c r="V91">
+        <v>2.27</v>
+      </c>
+      <c r="W91">
+        <v>3.28</v>
+      </c>
+      <c r="X91">
+        <v>4.53</v>
+      </c>
+      <c r="Y91">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>8</v>
+      </c>
+      <c r="K92" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1">
+        <v>1</v>
+      </c>
+      <c r="O92" s="1">
+        <v>1</v>
+      </c>
+      <c r="P92" s="1">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s">
+        <v>9</v>
+      </c>
+      <c r="U92">
+        <v>2.71</v>
+      </c>
+      <c r="V92">
+        <v>3.54</v>
+      </c>
+      <c r="W92">
+        <v>4.57</v>
+      </c>
+      <c r="X92">
+        <v>6.95</v>
+      </c>
+      <c r="Y92">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>8</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>1</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" t="s">
+        <v>8</v>
+      </c>
+      <c r="U93">
+        <v>21.68</v>
+      </c>
+      <c r="V93">
+        <v>195.08</v>
+      </c>
+      <c r="W93">
+        <v>838.95</v>
+      </c>
+      <c r="X93">
+        <v>368.62</v>
+      </c>
+      <c r="Y93">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>0.39</v>
+      </c>
+      <c r="D114">
+        <v>0.59</v>
+      </c>
+      <c r="E114">
+        <v>1.21</v>
+      </c>
+      <c r="F114">
+        <v>3.11</v>
+      </c>
+      <c r="G114">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>0.47</v>
+      </c>
+      <c r="D115">
+        <v>2.27</v>
+      </c>
+      <c r="E115">
+        <v>3.28</v>
+      </c>
+      <c r="F115">
+        <v>4.53</v>
+      </c>
+      <c r="G115">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>2.71</v>
+      </c>
+      <c r="D116">
+        <v>3.54</v>
+      </c>
+      <c r="E116">
+        <v>4.57</v>
+      </c>
+      <c r="F116">
+        <v>6.95</v>
+      </c>
+      <c r="G116">
+        <v>17.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
